--- a/Data/cambodia_projects.xlsx
+++ b/Data/cambodia_projects.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmid_nat\Desktop\giz_mapping\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmid_nat\Documents\giz_mapping\toy_dash_application\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F250B5-408A-4F5C-8CF0-1506BD519B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D517F0-3B17-412F-BF5E-EBB01154C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11925" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{7AEC4126-3C7B-4D00-A9A3-6376038D8029}"/>
+    <workbookView xWindow="-11580" yWindow="-15990" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{7AEC4126-3C7B-4D00-A9A3-6376038D8029}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="cambodia_projects" sheetId="2" r:id="rId2"/>
+    <sheet name="cambodia_projects" sheetId="2" r:id="rId1"/>
+    <sheet name="descriptions" sheetId="5" r:id="rId2"/>
     <sheet name="indicators" sheetId="3" r:id="rId3"/>
     <sheet name="testimonials" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="91">
   <si>
     <t>project_id</t>
   </si>
@@ -83,34 +83,10 @@
     <t>2022-02-01</t>
   </si>
   <si>
-    <t>rice_sdp_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune Agroecosystem Analysis </t>
-  </si>
-  <si>
-    <t>Kampong Svay</t>
-  </si>
-  <si>
     <t>2019-09-01</t>
   </si>
   <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
     <t>2019-11-01</t>
-  </si>
-  <si>
-    <t>rice_sdp_03</t>
-  </si>
-  <si>
-    <t>Prey Veng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Commune Agroecosystem Analysis </t>
-  </si>
-  <si>
-    <t>Preah Sdach</t>
   </si>
   <si>
     <t>rice_sdp_04</t>
@@ -271,9 +247,6 @@
     <t>2020-12-01</t>
   </si>
   <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
     <t>Canal meters constructed</t>
   </si>
   <si>
@@ -307,18 +280,9 @@
     <t>As a member of the Water User Association, I have witnessed firsthand the positive impact of the infrastructure development on our community in Prey Veng. The rehabilitation of the canal and associated investments have not only improved water management but have also strengthened our ability to adapt to climate change. With better access to water and enhanced irrigation systems, our rice fields are more resilient to extreme weather events, such as droughts and floods. This has provided a sense of security for farmers like myself, knowing that our livelihoods are less vulnerable to environmental challenges. The support provided by this project has fostered collaboration among farmers and empowered us to sustainably manage our water resources for future generations.</t>
   </si>
   <si>
-    <t>Living in Boeung Thbong Village, Battambang, I have seen how the rehabilitation of the Chhuk Ksach canal No.3 has revitalized our agricultural community. The improvements in water flow and irrigation infrastructure have not only boosted rice production but have also created opportunities for diversification. Farmers in our village are now exploring new crops and farming techniques, thanks to the consistent water supply provided by the canal. Additionally, the enhancement of access roads has improved connectivity, facilitating the transportation of goods to markets and enhancing economic opportunities for the entire community. This project has not only improved our livelihoods but has also strengthened the resilience of our village against the impacts of climate change. We are incredibly thankful for the support received through this initiative.</t>
-  </si>
-  <si>
     <t>As a farmer in Pursat Province, I have always faced challenges in accessing quality agricultural inputs and technologies. However, thanks to the Productivity Enhancement Support project, my farming practices have been revolutionized. The subsidized certified seeds, fertilizer, and training provided have not only increased my crop yields but have also diversified my livelihood options. I've been able to experiment with new crops and techniques, leading to improved resilience against environmental fluctuations. This support has not only boosted my family's food security but has also enhanced our income opportunities. I'm incredibly grateful for the opportunities this project has provided</t>
   </si>
   <si>
-    <t>As a woman working in agriculture in Kampong Speu Province, I've often felt marginalized and overlooked. However, the Productivity Enhancement Support project has been a game-changer for me and many other women like me. The project's focus on increasing access to improved agricultural inputs and technologies has empowered us to take a more active role in farming. Through the provision of subsidized seeds, fertilizer, and animals, along with training and support, we have been able to increase our productivity and contribute more effectively to our families' well-being. This project has not only improved our livelihoods but has also empowered us to play a greater role in decision-making within our communities</t>
-  </si>
-  <si>
-    <t>As a smallholder farmer in Battambang Province, I've always struggled to afford high-quality agricultural inputs. The Productivity Enhancement Support project has been a lifeline for me and many others in similar situations. The subsidized seeds, fertilizer, and animals provided through this initiative have not only increased my productivity but have also improved the overall quality of my crops and livestock. The training and support offered have equipped me with the knowledge and skills needed to optimize my farming practices sustainably. Thanks to this project, I've been able to enhance my income and improve my family's standard of living. I'm deeply grateful for the support and opportunities provided.</t>
-  </si>
-  <si>
     <t>rice_sdp_01_testimonial_01</t>
   </si>
   <si>
@@ -335,6 +299,21 @@
   </si>
   <si>
     <t>rice_sdp_04_testimonial_03</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>However, the Productivity Enhancement Support project has been a game-changer for me and many other women like me. The project's focus on increasing access to improved agricultural inputs and technologies has empowered us to take a more active role in farming. Through the provision of subsidized seeds, fertilizer, and animals, along with training and support, we have been able to increase our productivity and contribute more effectively to our families' well-being. This project has not only improved our livelihoods but has also empowered us to play a greater role in decision-making within our communities</t>
+  </si>
+  <si>
+    <t>As a smallholder farmer in Battambang Province, I've struggled to afford high-quality agricultural inputs. The Productivity Enhancement Support project has been a lifeline for me and many others in similar situations. The subsidized seeds, fertilizer, and animals provided through this initiative have not only increased my productivity but have also improved the overall quality of my crops and livestock. The training and support offered have equipped me with the knowledge and skills needed to optimize my farming practices sustainably. Thanks to this project, I've been able to enhance my income and improve my family's standard of living. I'm deeply grateful for the support and opportunities provided.</t>
+  </si>
+  <si>
+    <t>I have seen how the rehabilitation of the Chhuk Ksach canal No.3 has revitalized our agricultural community. The improvements in water flow and irrigation infrastructure have not only boosted rice production but have also created opportunities for diversification. Farmers in our village are now exploring new crops and farming techniques, thanks to the consistent water supply provided by the canal. Additionally, the enhancement of access roads has improved connectivity, facilitating the transportation of goods to markets and enhancing economic opportunities for the entire community. This project has not only improved our livelihoods but has also strengthened the resilience of our village against the impacts of climate change. We are incredibly thankful for the support received through this initiative.</t>
   </si>
 </sst>
 </file>
@@ -699,186 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3BE93D-2383-4BB0-A7BC-81D325E8D493}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE4B7E-51F1-4C7C-A730-9198D98BB961}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>12.391061000000001</v>
-      </c>
-      <c r="F2">
-        <v>105.114631</v>
-      </c>
-      <c r="G2">
-        <v>3000000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>12.791693</v>
-      </c>
-      <c r="F3">
-        <v>104.832421</v>
-      </c>
-      <c r="G3">
-        <v>1500000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>11.094776</v>
-      </c>
-      <c r="F4">
-        <v>105.38560200000001</v>
-      </c>
-      <c r="G4">
-        <v>250000</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>12.563653</v>
-      </c>
-      <c r="F5">
-        <v>105.04560499999999</v>
-      </c>
-      <c r="G5">
-        <v>10000000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE4B7E-51F1-4C7C-A730-9198D98BB961}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,11 +690,9 @@
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.90625" customWidth="1"/>
-    <col min="11" max="11" width="72.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -918,14 +720,8 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="170.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="170.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -953,28 +749,22 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>12.563653</v>
+        <v>12.763653</v>
       </c>
       <c r="F3">
         <v>105.04560499999999</v>
@@ -983,16 +773,63 @@
         <v>10000000</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288ED52E-0EDB-4A6A-8FF9-E53F3498319C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="52.81640625" customWidth="1"/>
+    <col min="3" max="3" width="70.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
+    </row>
+    <row r="3" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0FD5BE-ADD9-4421-85FF-60BB55533393}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,33 +860,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1058,24 +895,24 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>500000</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1084,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1095,10 +932,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1107,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1118,10 +955,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1130,24 +967,24 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1156,10 +993,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1167,10 +1004,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1179,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1190,10 +1027,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -1202,21 +1039,21 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>4000000</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1228,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1239,10 +1076,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>200</v>
@@ -1251,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1262,10 +1099,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>1000</v>
@@ -1274,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1285,10 +1122,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1297,10 +1134,10 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1308,10 +1145,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1320,10 +1157,10 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1331,10 +1168,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1343,24 +1180,24 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>250000</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1369,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1380,10 +1217,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1392,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1403,10 +1240,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1415,24 +1252,24 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>4000000</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>500</v>
@@ -1441,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1452,10 +1289,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>500</v>
@@ -1464,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1475,10 +1312,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -1487,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1498,10 +1335,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -1510,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1521,10 +1358,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -1533,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1544,10 +1381,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>200</v>
@@ -1556,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1567,10 +1404,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>500</v>
@@ -1579,10 +1416,10 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1590,10 +1427,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>630</v>
@@ -1602,24 +1439,24 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>250000</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1628,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1651,16 +1488,16 @@
         <v>10000</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G27">
         <v>750000</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1668,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1677,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1691,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1700,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G29">
         <v>1500000</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1717,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>300</v>
@@ -1726,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G30">
         <v>4000000</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1743,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>300</v>
@@ -1752,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1766,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>400</v>
@@ -1775,10 +1612,10 @@
         <v>10000</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1789,7 +1626,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -1798,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1812,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -1821,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1835,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>200</v>
@@ -1844,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1858,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1867,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1881,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1890,10 +1727,10 @@
         <v>10000</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1904,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1913,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1927,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>500</v>
@@ -1936,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G39">
         <v>250000</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1953,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>750</v>
@@ -1962,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G40">
         <v>4000000</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1979,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>750</v>
@@ -1988,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2002,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>500</v>
@@ -2011,10 +1848,10 @@
         <v>10000</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2025,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C43">
         <v>1000</v>
@@ -2034,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2048,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <v>1000</v>
@@ -2057,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2071,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>500</v>
@@ -2080,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G45">
         <v>4000000</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2097,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>500</v>
@@ -2106,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2120,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>500</v>
@@ -2129,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2143,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>500</v>
@@ -2152,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2166,7 +2003,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2175,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2189,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2198,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2212,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2221,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G51">
         <v>250000</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -2278,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EF6E02-44A4-44C7-8B59-944C64BAB2F8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2293,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
@@ -2304,10 +2141,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="377" x14ac:dyDescent="0.35">
@@ -2315,54 +2152,54 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="406" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="348" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="7" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="348" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="348" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cambodia_projects.xlsx
+++ b/Data/cambodia_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmid_nat\Documents\giz_mapping\toy_dash_application\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D517F0-3B17-412F-BF5E-EBB01154C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC5643C-DE94-417C-838F-8E8DE2CAC141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-11580" yWindow="-15990" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{7AEC4126-3C7B-4D00-A9A3-6376038D8029}"/>
   </bookViews>
@@ -280,9 +280,6 @@
     <t>As a member of the Water User Association, I have witnessed firsthand the positive impact of the infrastructure development on our community in Prey Veng. The rehabilitation of the canal and associated investments have not only improved water management but have also strengthened our ability to adapt to climate change. With better access to water and enhanced irrigation systems, our rice fields are more resilient to extreme weather events, such as droughts and floods. This has provided a sense of security for farmers like myself, knowing that our livelihoods are less vulnerable to environmental challenges. The support provided by this project has fostered collaboration among farmers and empowered us to sustainably manage our water resources for future generations.</t>
   </si>
   <si>
-    <t>As a farmer in Pursat Province, I have always faced challenges in accessing quality agricultural inputs and technologies. However, thanks to the Productivity Enhancement Support project, my farming practices have been revolutionized. The subsidized certified seeds, fertilizer, and training provided have not only increased my crop yields but have also diversified my livelihood options. I've been able to experiment with new crops and techniques, leading to improved resilience against environmental fluctuations. This support has not only boosted my family's food security but has also enhanced our income opportunities. I'm incredibly grateful for the opportunities this project has provided</t>
-  </si>
-  <si>
     <t>rice_sdp_01_testimonial_01</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>I have seen how the rehabilitation of the Chhuk Ksach canal No.3 has revitalized our agricultural community. The improvements in water flow and irrigation infrastructure have not only boosted rice production but have also created opportunities for diversification. Farmers in our village are now exploring new crops and farming techniques, thanks to the consistent water supply provided by the canal. Additionally, the enhancement of access roads has improved connectivity, facilitating the transportation of goods to markets and enhancing economic opportunities for the entire community. This project has not only improved our livelihoods but has also strengthened the resilience of our village against the impacts of climate change. We are incredibly thankful for the support received through this initiative.</t>
+  </si>
+  <si>
+    <t>As a farmer in Pursat Province, I have faced challenges in accessing quality agricultural inputs and technologies. However, thanks to the Productivity Enhancement Support project, my farming practices have been revolutionized. The subsidized certified seeds, fertilizer, and training provided have not only increased my crop yields but have also diversified my livelihood options. I've been able to experiment with new crops and techniques, leading to improved resilience against environmental fluctuations. This support has not only boosted my family's food security but has also enhanced our income opportunities. I'm incredibly grateful for the opportunities this project has provided</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2115,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EF6E02-44A4-44C7-8B59-944C64BAB2F8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2141,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>77</v>
@@ -2152,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
@@ -2163,10 +2163,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -2174,10 +2174,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -2185,10 +2185,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -2196,10 +2196,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cambodia_projects.xlsx
+++ b/Data/cambodia_projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmid_nat\Documents\giz_mapping\toy_dash_application\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC5643C-DE94-417C-838F-8E8DE2CAC141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CF717-347E-44F9-A0F0-9990514795DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11580" yWindow="-15990" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{7AEC4126-3C7B-4D00-A9A3-6376038D8029}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AEC4126-3C7B-4D00-A9A3-6376038D8029}"/>
   </bookViews>
   <sheets>
     <sheet name="cambodia_projects" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="95">
   <si>
     <t>project_id</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>As a farmer in Pursat Province, I have faced challenges in accessing quality agricultural inputs and technologies. However, thanks to the Productivity Enhancement Support project, my farming practices have been revolutionized. The subsidized certified seeds, fertilizer, and training provided have not only increased my crop yields but have also diversified my livelihood options. I've been able to experiment with new crops and techniques, leading to improved resilience against environmental fluctuations. This support has not only boosted my family's food security but has also enhanced our income opportunities. I'm incredibly grateful for the opportunities this project has provided</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
   </si>
 </sst>
 </file>
@@ -679,20 +691,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE4B7E-51F1-4C7C-A730-9198D98BB961}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,28 +713,34 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="170.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="170.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -729,28 +748,34 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>12.391061000000001</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>105.114631</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>14750000</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -758,24 +783,30 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>12.763653</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>105.04560499999999</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>10000000</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2115,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EF6E02-44A4-44C7-8B59-944C64BAB2F8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
